--- a/CarbonetesAutomatedSmokeTesting.xlsx
+++ b/CarbonetesAutomatedSmokeTesting.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gretchin\Desktop\Automation Stuffs\CARBONETES\DataDriven\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6A3974-3C62-46DA-BD27-581BCBFDA6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{119FE0E2-72DC-4B2B-AC0C-A2D7A48A8FBA}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Report Summary" sheetId="2" r:id="rId1"/>
     <sheet name="Registration" sheetId="1" r:id="rId2"/>
-    <sheet name="Dashboard" sheetId="4" r:id="rId3"/>
+    <sheet name="SIGNIN" sheetId="3" r:id="rId3"/>
+    <sheet name="Environments" sheetId="4" r:id="rId4"/>
+    <sheet name="Forgot" sheetId="5" r:id="rId5"/>
+    <sheet name="Search" sheetId="6" r:id="rId6"/>
+    <sheet name="PublicImage" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -123,32 +121,62 @@
     <t>Username</t>
   </si>
   <si>
-    <t>gretchin.ogao@deepdata.com</t>
-  </si>
-  <si>
-    <t>DavidB01</t>
-  </si>
-  <si>
-    <t>DashboardTabSelected</t>
-  </si>
-  <si>
-    <t>Security Risks</t>
-  </si>
-  <si>
-    <t>Activities &amp; Action Items</t>
-  </si>
-  <si>
-    <t>Compliance &amp; Governance</t>
-  </si>
-  <si>
-    <t>Asset Management</t>
+    <t>ScenarioType</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>admin@hoolisoftware.com</t>
+  </si>
+  <si>
+    <t>!Carbonetes121</t>
+  </si>
+  <si>
+    <t>!Carbonetes99</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>123 Environment</t>
+  </si>
+  <si>
+    <t>Auto Environment</t>
+  </si>
+  <si>
+    <t>Automation101</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>hannahbellemerida@gmail,com</t>
+  </si>
+  <si>
+    <t>janeysmith381@gmail.com</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>redis:bullseye</t>
+  </si>
+  <si>
+    <t>Successfully scan image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +204,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -227,6 +261,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,9 +293,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-PH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -351,31 +386,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -383,6 +393,7 @@
       <c:rotY val="0"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -454,7 +465,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-12E6-4443-BDFC-71A011E2DABC}"/>
               </c:ext>
@@ -479,7 +490,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-12E6-4443-BDFC-71A011E2DABC}"/>
               </c:ext>
@@ -542,7 +553,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -575,7 +586,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-12E6-4443-BDFC-71A011E2DABC}"/>
             </c:ext>
@@ -632,14 +643,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -674,565 +685,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1253,7 +705,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E862FE3F-640E-45F5-98B7-66EEE204C58B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E862FE3F-640E-45F5-98B7-66EEE204C58B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1369,7 +821,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1563,47 +1015,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5611CA1D-4428-4329-8BC3-D25DFD77DA47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J10"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1625,19 +1077,19 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="2:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
@@ -1654,26 +1106,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6FB3F6-3910-4D15-B769-09E1C127E6F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1770,30 +1222,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{7B3E969B-B176-4535-A557-45948F0E94EC}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C581FADD-37CC-4466-83C7-11D0C104B029}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1801,69 +1252,255 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B9779FCC-3440-4D01-BE71-340690D8FD64}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{8AC98CBF-28E3-4384-9E06-DD27A8563E48}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{9ADDB579-1B4E-406C-843B-6BF71533980E}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{BC04EDE0-F059-493E-B8D0-0965CBDA2943}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>